--- a/data/数据整理.xlsx
+++ b/data/数据整理.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,6 +851,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>4517</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -862,6 +868,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>4490</v>
+      </c>
+      <c r="E28">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -873,6 +885,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>4490</v>
+      </c>
+      <c r="E29">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -884,6 +902,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>4419</v>
+      </c>
+      <c r="E30">
+        <v>153</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -895,6 +919,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>4329</v>
+      </c>
+      <c r="E31">
+        <v>206</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -906,8 +936,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>4769</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1</v>
       </c>
@@ -917,8 +953,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4769</v>
+      </c>
+      <c r="E33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1</v>
       </c>
@@ -928,8 +970,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>4769</v>
+      </c>
+      <c r="E34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -939,8 +987,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>4733</v>
+      </c>
+      <c r="E35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1</v>
       </c>
@@ -949,6 +1003,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4688</v>
+      </c>
+      <c r="E36">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1022,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1420,6 +1480,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>4137</v>
+      </c>
+      <c r="E27">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -1431,6 +1497,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>4171</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -1442,6 +1514,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>4171</v>
+      </c>
+      <c r="E29">
+        <v>86</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -1453,6 +1531,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>4163</v>
+      </c>
+      <c r="E30">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -1464,6 +1548,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>4146</v>
+      </c>
+      <c r="E31">
+        <v>160</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -1475,8 +1565,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>4079</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1486,8 +1582,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4061</v>
+      </c>
+      <c r="E33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1497,8 +1599,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>4078</v>
+      </c>
+      <c r="E34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1508,8 +1616,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>4086</v>
+      </c>
+      <c r="E35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1518,6 +1632,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4061</v>
+      </c>
+      <c r="E36">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1530,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1988,6 +2108,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>5182</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -1999,6 +2125,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>5164</v>
+      </c>
+      <c r="E28">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -2010,6 +2142,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>5155</v>
+      </c>
+      <c r="E29">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -2021,6 +2159,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>5127</v>
+      </c>
+      <c r="E30">
+        <v>113</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -2032,6 +2176,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>5081</v>
+      </c>
+      <c r="E31">
+        <v>149</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -2043,8 +2193,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>5412</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2054,8 +2210,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>5403</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2065,8 +2227,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>5393</v>
+      </c>
+      <c r="E34">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2076,8 +2244,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>5384</v>
+      </c>
+      <c r="E35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2086,6 +2260,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>5347</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2279,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2556,6 +2736,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>4528</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -2567,6 +2753,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>4501</v>
+      </c>
+      <c r="E28">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -2578,6 +2770,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>4492</v>
+      </c>
+      <c r="E29">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -2589,6 +2787,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>4465</v>
+      </c>
+      <c r="E30">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -2600,6 +2804,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>4447</v>
+      </c>
+      <c r="E31">
+        <v>141</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -2611,8 +2821,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>4837</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2622,8 +2838,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4819</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2633,8 +2855,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>4792</v>
+      </c>
+      <c r="E34">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2644,8 +2872,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>4792</v>
+      </c>
+      <c r="E35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2654,6 +2888,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4755</v>
+      </c>
+      <c r="E36">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2663,574 +2903,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>929</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>958</v>
-      </c>
-      <c r="E3">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>998</v>
-      </c>
-      <c r="E4">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1048</v>
-      </c>
-      <c r="E5">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1087</v>
-      </c>
-      <c r="E6">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1246</v>
-      </c>
-      <c r="E7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1276</v>
-      </c>
-      <c r="E8">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>1306</v>
-      </c>
-      <c r="E9">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>300</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1335</v>
-      </c>
-      <c r="E10">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>400</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>1345</v>
-      </c>
-      <c r="E11">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>2010</v>
-      </c>
-      <c r="E12">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
-      <c r="E13">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-      <c r="E14">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>300</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>2040</v>
-      </c>
-      <c r="E15">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>400</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>2040</v>
-      </c>
-      <c r="E16">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>2863</v>
-      </c>
-      <c r="E17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>2863</v>
-      </c>
-      <c r="E18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>2883</v>
-      </c>
-      <c r="E19">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>300</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>2893</v>
-      </c>
-      <c r="E20">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>400</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>2903</v>
-      </c>
-      <c r="E21">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>40</v>
-      </c>
-      <c r="D22">
-        <v>3806</v>
-      </c>
-      <c r="E22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <v>40</v>
-      </c>
-      <c r="D23">
-        <v>3796</v>
-      </c>
-      <c r="E23">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-      <c r="C24">
-        <v>40</v>
-      </c>
-      <c r="D24">
-        <v>3806</v>
-      </c>
-      <c r="E24">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>300</v>
-      </c>
-      <c r="C25">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <v>3806</v>
-      </c>
-      <c r="E25">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>400</v>
-      </c>
-      <c r="C26">
-        <v>40</v>
-      </c>
-      <c r="D26">
-        <v>3789</v>
-      </c>
-      <c r="E26">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>300</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>400</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>200</v>
-      </c>
-      <c r="C34">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>300</v>
-      </c>
-      <c r="C35">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>400</v>
-      </c>
-      <c r="C36">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -3259,6 +2931,634 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>929</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>958</v>
+      </c>
+      <c r="E3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>998</v>
+      </c>
+      <c r="E4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1048</v>
+      </c>
+      <c r="E5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1087</v>
+      </c>
+      <c r="E6">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1246</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1276</v>
+      </c>
+      <c r="E8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1306</v>
+      </c>
+      <c r="E9">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1335</v>
+      </c>
+      <c r="E10">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1345</v>
+      </c>
+      <c r="E11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2030</v>
+      </c>
+      <c r="E14">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2040</v>
+      </c>
+      <c r="E15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2040</v>
+      </c>
+      <c r="E16">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2863</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>2863</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>2883</v>
+      </c>
+      <c r="E19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>2893</v>
+      </c>
+      <c r="E20">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>400</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>2903</v>
+      </c>
+      <c r="E21">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>3806</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>3796</v>
+      </c>
+      <c r="E23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>3806</v>
+      </c>
+      <c r="E24">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>3806</v>
+      </c>
+      <c r="E25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>400</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>3789</v>
+      </c>
+      <c r="E26">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>4717</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>4718</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>4688</v>
+      </c>
+      <c r="E29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>300</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>4698</v>
+      </c>
+      <c r="E30">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>400</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>4659</v>
+      </c>
+      <c r="E31">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>5075</v>
+      </c>
+      <c r="E32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>5056</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>5046</v>
+      </c>
+      <c r="E34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>300</v>
+      </c>
+      <c r="C35">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>5016</v>
+      </c>
+      <c r="E35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>400</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4996</v>
+      </c>
+      <c r="E36">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="A36:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
@@ -3692,6 +3992,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>4675</v>
+      </c>
+      <c r="E27">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -3703,6 +4009,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>4665</v>
+      </c>
+      <c r="E28">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -3714,6 +4026,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>4655</v>
+      </c>
+      <c r="E29">
+        <v>85</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -3725,6 +4043,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>4655</v>
+      </c>
+      <c r="E30">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -3736,6 +4060,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>4645</v>
+      </c>
+      <c r="E31">
+        <v>165</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -3747,8 +4077,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>4951</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
@@ -3758,8 +4094,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4941</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3769,8 +4111,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>4941</v>
+      </c>
+      <c r="E34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3780,8 +4128,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>4911</v>
+      </c>
+      <c r="E35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>5</v>
       </c>
@@ -3790,6 +4144,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4901</v>
+      </c>
+      <c r="E36">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +4163,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4260,6 +4620,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>4255</v>
+      </c>
+      <c r="E27">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -4271,6 +4637,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>4255</v>
+      </c>
+      <c r="E28">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -4282,6 +4654,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>4236</v>
+      </c>
+      <c r="E29">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -4293,6 +4671,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>4217</v>
+      </c>
+      <c r="E30">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -4304,6 +4688,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>4198</v>
+      </c>
+      <c r="E31">
+        <v>152</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -4315,8 +4705,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>4804</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -4326,8 +4722,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4785</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>6</v>
       </c>
@@ -4337,8 +4739,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>4756</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4348,8 +4756,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>4737</v>
+      </c>
+      <c r="E35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>6</v>
       </c>
@@ -4358,6 +4772,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4709</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4372,7 +4792,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4829,6 +5249,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>4951</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -4840,6 +5266,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>4932</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -4851,6 +5283,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>4922</v>
+      </c>
+      <c r="E29">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -4862,6 +5300,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>4885</v>
+      </c>
+      <c r="E30">
+        <v>167</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -4873,6 +5317,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>4875</v>
+      </c>
+      <c r="E31">
+        <v>211</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -4884,8 +5334,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>5092</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>7</v>
       </c>
@@ -4895,8 +5351,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>5102</v>
+      </c>
+      <c r="E33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>7</v>
       </c>
@@ -4906,8 +5368,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>5102</v>
+      </c>
+      <c r="E34">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>7</v>
       </c>
@@ -4917,8 +5385,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>5092</v>
+      </c>
+      <c r="E35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4927,6 +5401,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>5083</v>
+      </c>
+      <c r="E36">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +5420,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5397,6 +5877,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>4224</v>
+      </c>
+      <c r="E27">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -5408,6 +5894,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>4224</v>
+      </c>
+      <c r="E28">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -5419,6 +5911,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>4215</v>
+      </c>
+      <c r="E29">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -5430,6 +5928,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>4188</v>
+      </c>
+      <c r="E30">
+        <v>185</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -5441,6 +5945,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>4169</v>
+      </c>
+      <c r="E31">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -5452,8 +5962,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>4527</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>8</v>
       </c>
@@ -5463,8 +5979,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4518</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>8</v>
       </c>
@@ -5474,8 +5996,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>4518</v>
+      </c>
+      <c r="E34">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>8</v>
       </c>
@@ -5485,8 +6013,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>4509</v>
+      </c>
+      <c r="E35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>8</v>
       </c>
@@ -5495,6 +6029,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4499</v>
+      </c>
+      <c r="E36">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +6048,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E30"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5965,6 +6505,12 @@
       <c r="C27">
         <v>50</v>
       </c>
+      <c r="D27">
+        <v>3785</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -5976,6 +6522,12 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>3785</v>
+      </c>
+      <c r="E28">
+        <v>81</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -5987,6 +6539,12 @@
       <c r="C29">
         <v>50</v>
       </c>
+      <c r="D29">
+        <v>3767</v>
+      </c>
+      <c r="E29">
+        <v>156</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -5998,6 +6556,12 @@
       <c r="C30">
         <v>50</v>
       </c>
+      <c r="D30">
+        <v>3758</v>
+      </c>
+      <c r="E30">
+        <v>219</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -6009,6 +6573,12 @@
       <c r="C31">
         <v>50</v>
       </c>
+      <c r="D31">
+        <v>3740</v>
+      </c>
+      <c r="E31">
+        <v>281</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -6020,8 +6590,14 @@
       <c r="C32">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>4088</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>9</v>
       </c>
@@ -6031,8 +6607,14 @@
       <c r="C33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>4088</v>
+      </c>
+      <c r="E33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>9</v>
       </c>
@@ -6042,8 +6624,14 @@
       <c r="C34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>4088</v>
+      </c>
+      <c r="E34">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>9</v>
       </c>
@@ -6053,8 +6641,14 @@
       <c r="C35">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>4079</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>9</v>
       </c>
@@ -6063,6 +6657,12 @@
       </c>
       <c r="C36">
         <v>55</v>
+      </c>
+      <c r="D36">
+        <v>4079</v>
+      </c>
+      <c r="E36">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据整理.xlsx
+++ b/data/数据整理.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="E3">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="E4">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -478,10 +478,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="E5">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>402</v>
+        <v>277</v>
       </c>
       <c r="E6">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1274</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1308</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1334</v>
+        <v>153</v>
       </c>
       <c r="E5">
-        <v>340</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1359</v>
+        <v>229</v>
       </c>
       <c r="E6">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1096</v>
+        <v>811</v>
       </c>
       <c r="E2">
         <v>61</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="E3">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1718,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1142</v>
+        <v>839</v>
       </c>
       <c r="E4">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1160</v>
+        <v>848</v>
       </c>
       <c r="E5">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1188</v>
+        <v>903</v>
       </c>
       <c r="E6">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2279,7 +2279,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>941</v>
+        <v>577</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>977</v>
+        <v>614</v>
       </c>
       <c r="E3">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1004</v>
+        <v>641</v>
       </c>
       <c r="E4">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1022</v>
+        <v>686</v>
       </c>
       <c r="E5">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1068</v>
+        <v>714</v>
       </c>
       <c r="E6">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2907,7 +2907,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2940,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>929</v>
+        <v>284</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2957,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>958</v>
+        <v>294</v>
       </c>
       <c r="E3">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2974,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>998</v>
+        <v>333</v>
       </c>
       <c r="E4">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1048</v>
+        <v>373</v>
       </c>
       <c r="E5">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1087</v>
+        <v>398</v>
       </c>
       <c r="E6">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3535,7 +3535,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="A36:E36"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1177</v>
+        <v>212</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1197</v>
+        <v>271</v>
       </c>
       <c r="E3">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1226</v>
+        <v>290</v>
       </c>
       <c r="E4">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3619,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1246</v>
+        <v>330</v>
       </c>
       <c r="E5">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1266</v>
+        <v>369</v>
       </c>
       <c r="E6">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4163,7 +4163,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-135</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4213,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-106</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4230,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-59</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>364</v>
@@ -4264,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="E6">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4792,7 +4792,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>617</v>
+        <v>333</v>
       </c>
       <c r="E2">
         <v>61</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>664</v>
+        <v>333</v>
       </c>
       <c r="E3">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4859,10 +4859,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>682</v>
+        <v>343</v>
       </c>
       <c r="E4">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4876,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>739</v>
+        <v>362</v>
       </c>
       <c r="E5">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -4893,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>815</v>
+        <v>408</v>
       </c>
       <c r="E6">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5420,7 +5420,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5453,10 +5453,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>750</v>
+        <v>347</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5470,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>778</v>
+        <v>375</v>
       </c>
       <c r="E3">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -5487,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>796</v>
+        <v>384</v>
       </c>
       <c r="E4">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5504,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>833</v>
+        <v>432</v>
       </c>
       <c r="E5">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>870</v>
+        <v>466</v>
       </c>
       <c r="E6">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -6048,7 +6048,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6081,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>666</v>
+        <v>-86</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -6098,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>694</v>
+        <v>-77</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -6115,10 +6115,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>703</v>
+        <v>-77</v>
       </c>
       <c r="E4">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -6132,10 +6132,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>740</v>
+        <v>-40</v>
       </c>
       <c r="E5">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>785</v>
+        <v>-4</v>
       </c>
       <c r="E6">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
